--- a/SQL/excel_results/RSI.xlsx
+++ b/SQL/excel_results/RSI.xlsx
@@ -920,7 +920,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
